--- a/pharma_config_hb.xlsx
+++ b/pharma_config_hb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Neodocs\Data\ppt_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6AA006-E4AD-4A49-8FA0-F1F1B491FFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08B57A3-3414-4977-88E3-7EDC8DF0FDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,18 +60,6 @@
     <t>aId</t>
   </si>
   <si>
-    <t>akumentis_hb</t>
-  </si>
-  <si>
-    <t>microlabs_ferisome_hb</t>
-  </si>
-  <si>
-    <t>lupin_hb</t>
-  </si>
-  <si>
-    <t>Mankind_(Zesteva)_Hb</t>
-  </si>
-  <si>
     <t>58454135-f6d6-4138-abce-c24075009c15</t>
   </si>
   <si>
@@ -82,6 +70,18 @@
   </si>
   <si>
     <t>507df2a6-c548-4147-adc6-2360ea227b08</t>
+  </si>
+  <si>
+    <t>akumentis hb</t>
+  </si>
+  <si>
+    <t>microlabs ferisome hb</t>
+  </si>
+  <si>
+    <t>lupin hb</t>
+  </si>
+  <si>
+    <t>Mankind (Zesteva) Hb</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,10 +436,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -456,10 +456,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -476,10 +476,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
       </c>
       <c r="C5">
         <v>10</v>

--- a/pharma_config_hb.xlsx
+++ b/pharma_config_hb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Neodocs\Data\ppt_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08B57A3-3414-4977-88E3-7EDC8DF0FDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135EDF6B-46B9-481A-B5B7-A4334CC94FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,10 +442,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -482,7 +482,7 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>10</v>

--- a/pharma_config_hb.xlsx
+++ b/pharma_config_hb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Neodocs\Data\ppt_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135EDF6B-46B9-481A-B5B7-A4334CC94FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78142928-FCA8-4AA7-B5C2-24D3D300C25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>pharma_name</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>Mankind (Zesteva) Hb</t>
+  </si>
+  <si>
+    <t>04fc2868-6cff-4ea7-846a-a01dc3fc80ba</t>
+  </si>
+  <si>
+    <t>gennova</t>
+  </si>
+  <si>
+    <t>template1gennovaHB.pptx</t>
   </si>
 </sst>
 </file>
@@ -399,19 +408,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" customWidth="1"/>
-    <col min="2" max="2" width="56" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -511,6 +521,26 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
         <v>5</v>
       </c>
     </row>
